--- a/Left Over/Loose Yarn.xlsx
+++ b/Left Over/Loose Yarn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
@@ -9,22 +9,21 @@
   <sheets>
     <sheet name="Print" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Print!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet4!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="48">
   <si>
     <t>Party</t>
   </si>
@@ -137,28 +136,63 @@
     <t>Ragidi</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of N.Wt</t>
+    <t xml:space="preserve">Party Name </t>
   </si>
   <si>
-    <t>Sum of G.Wt</t>
+    <t xml:space="preserve"> G.Wt</t>
   </si>
   <si>
-    <t>Sum of Cone</t>
+    <t xml:space="preserve"> N.Wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahid Knitting </t>
+  </si>
+  <si>
+    <t>Loose Yarn</t>
+  </si>
+  <si>
+    <t>Date :</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>Septembar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -185,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -203,6 +237,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +263,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44455.615414583335" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="168">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F169" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F169" sheet="Data"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Party" numFmtId="0">
@@ -240,7 +283,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Count " numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="14">
+        <s v="30/1"/>
+        <s v="26/1"/>
+        <s v="34/1"/>
+        <s v="28/1"/>
+        <s v="20/1"/>
+        <s v="24/1"/>
+        <s v="12/1"/>
+        <s v="avg"/>
+        <s v="26/sco"/>
+        <n v="0"/>
+        <s v="38/1"/>
+        <s v="32/1"/>
+        <s v="16/1"/>
+        <s v="40/1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Lot " numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="500021"/>
@@ -404,7 +462,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="168">
   <r>
     <x v="0"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="83002"/>
     <n v="118"/>
     <x v="0"/>
@@ -412,7 +470,7 @@
   </r>
   <r>
     <x v="0"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="300"/>
     <n v="66"/>
     <x v="1"/>
@@ -420,7 +478,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="14726"/>
     <n v="82"/>
     <x v="2"/>
@@ -428,7 +486,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="14726"/>
     <n v="106"/>
     <x v="3"/>
@@ -436,7 +494,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="7872"/>
     <n v="112"/>
     <x v="4"/>
@@ -444,7 +502,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="500021"/>
     <n v="202"/>
     <x v="5"/>
@@ -452,7 +510,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="14726"/>
     <n v="47"/>
     <x v="6"/>
@@ -460,7 +518,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="905"/>
     <n v="200"/>
     <x v="7"/>
@@ -468,7 +526,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="2"/>
     <n v="45"/>
     <x v="8"/>
@@ -476,7 +534,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="36"/>
     <x v="9"/>
@@ -484,7 +542,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="3418"/>
     <n v="60"/>
     <x v="10"/>
@@ -492,7 +550,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="26"/>
     <x v="10"/>
@@ -500,7 +558,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="60"/>
     <x v="11"/>
@@ -508,7 +566,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="134"/>
     <x v="12"/>
@@ -516,7 +574,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="2823"/>
     <n v="56"/>
     <x v="13"/>
@@ -524,7 +582,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="18"/>
     <x v="14"/>
@@ -532,7 +590,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="24"/>
     <x v="15"/>
@@ -540,7 +598,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="70"/>
     <x v="16"/>
@@ -548,7 +606,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="2626"/>
     <n v="50"/>
     <x v="17"/>
@@ -556,7 +614,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="60+40"/>
     <n v="36"/>
     <x v="18"/>
@@ -564,7 +622,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="60+40"/>
     <n v="66"/>
     <x v="19"/>
@@ -572,7 +630,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="60+40"/>
     <n v="47"/>
     <x v="20"/>
@@ -580,7 +638,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <s v="cvc"/>
     <n v="173"/>
     <x v="21"/>
@@ -588,7 +646,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="cvc"/>
     <n v="36"/>
     <x v="19"/>
@@ -596,7 +654,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="cvc"/>
     <n v="36"/>
     <x v="22"/>
@@ -604,7 +662,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <s v="cvc"/>
     <n v="19"/>
     <x v="23"/>
@@ -612,7 +670,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="102"/>
     <x v="24"/>
@@ -620,7 +678,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="2"/>
     <x v="25"/>
@@ -628,7 +686,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="2610"/>
     <n v="20"/>
     <x v="26"/>
@@ -636,7 +694,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="20"/>
     <n v="100"/>
     <x v="27"/>
@@ -644,7 +702,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="1354"/>
     <n v="102"/>
     <x v="28"/>
@@ -652,7 +710,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="24"/>
     <x v="29"/>
@@ -660,7 +718,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="24"/>
     <x v="29"/>
@@ -668,7 +726,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="24"/>
     <x v="29"/>
@@ -676,7 +734,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="24"/>
     <x v="29"/>
@@ -684,7 +742,7 @@
   </r>
   <r>
     <x v="2"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="24"/>
     <x v="29"/>
@@ -692,7 +750,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4118"/>
     <n v="68"/>
     <x v="30"/>
@@ -700,7 +758,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="avg"/>
+    <x v="7"/>
     <n v="0"/>
     <n v="103"/>
     <x v="31"/>
@@ -708,7 +766,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8047"/>
     <n v="114"/>
     <x v="32"/>
@@ -716,7 +774,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="5042"/>
     <n v="20"/>
     <x v="33"/>
@@ -724,7 +782,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8047"/>
     <n v="123"/>
     <x v="34"/>
@@ -732,7 +790,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8042"/>
     <n v="35"/>
     <x v="35"/>
@@ -740,7 +798,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4023"/>
     <n v="27"/>
     <x v="36"/>
@@ -748,7 +806,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4059"/>
     <n v="45"/>
     <x v="37"/>
@@ -756,7 +814,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <s v="08/21"/>
     <n v="178"/>
     <x v="38"/>
@@ -764,7 +822,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8042"/>
     <n v="19"/>
     <x v="39"/>
@@ -772,7 +830,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8047"/>
     <n v="64"/>
     <x v="40"/>
@@ -780,7 +838,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4027"/>
     <n v="123"/>
     <x v="41"/>
@@ -788,7 +846,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4027"/>
     <n v="35"/>
     <x v="42"/>
@@ -796,7 +854,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="26/sco"/>
+    <x v="8"/>
     <n v="14"/>
     <n v="111"/>
     <x v="8"/>
@@ -804,7 +862,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8042"/>
     <n v="51"/>
     <x v="15"/>
@@ -812,7 +870,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8049"/>
     <n v="220"/>
     <x v="43"/>
@@ -820,7 +878,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="6871"/>
     <n v="78"/>
     <x v="44"/>
@@ -828,7 +886,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="6836"/>
     <n v="37"/>
     <x v="45"/>
@@ -836,7 +894,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="8042"/>
     <n v="47"/>
     <x v="46"/>
@@ -844,7 +902,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <s v="s/j"/>
     <n v="111"/>
     <x v="47"/>
@@ -852,7 +910,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="12/1"/>
+    <x v="6"/>
     <n v="4114"/>
     <n v="66"/>
     <x v="47"/>
@@ -860,7 +918,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="849"/>
     <n v="18"/>
     <x v="48"/>
@@ -868,7 +926,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="avg"/>
+    <x v="7"/>
     <n v="2305"/>
     <n v="0"/>
     <x v="49"/>
@@ -876,7 +934,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="171"/>
     <x v="50"/>
@@ -884,7 +942,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="136"/>
     <x v="51"/>
@@ -892,7 +950,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="175"/>
     <x v="52"/>
@@ -900,7 +958,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="170"/>
     <x v="53"/>
@@ -908,7 +966,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="249"/>
     <x v="54"/>
@@ -916,7 +974,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
+    <x v="9"/>
     <n v="0"/>
     <n v="114"/>
     <x v="55"/>
@@ -924,7 +982,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="30"/>
     <x v="11"/>
@@ -932,7 +990,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="159"/>
     <x v="56"/>
@@ -940,7 +998,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="55"/>
     <x v="57"/>
@@ -948,7 +1006,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="74"/>
     <x v="8"/>
@@ -956,7 +1014,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="38"/>
     <x v="58"/>
@@ -964,7 +1022,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="116"/>
     <x v="59"/>
@@ -972,7 +1030,7 @@
   </r>
   <r>
     <x v="4"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="50121"/>
     <n v="60"/>
     <x v="2"/>
@@ -980,7 +1038,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <s v="10/21"/>
     <n v="61"/>
     <x v="60"/>
@@ -988,7 +1046,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="147"/>
     <x v="61"/>
@@ -996,7 +1054,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="87"/>
     <x v="62"/>
@@ -1004,7 +1062,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="120"/>
     <x v="63"/>
@@ -1012,7 +1070,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="384"/>
     <n v="48"/>
     <x v="64"/>
@@ -1020,7 +1078,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="14560"/>
     <n v="106"/>
     <x v="65"/>
@@ -1028,7 +1086,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="51"/>
     <x v="66"/>
@@ -1036,7 +1094,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="66"/>
     <x v="67"/>
@@ -1044,7 +1102,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="252"/>
     <x v="68"/>
@@ -1052,7 +1110,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="0"/>
     <x v="29"/>
@@ -1060,7 +1118,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <x v="29"/>
@@ -1068,7 +1126,7 @@
   </r>
   <r>
     <x v="5"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="115"/>
     <x v="69"/>
@@ -1076,7 +1134,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3006"/>
     <n v="40"/>
     <x v="70"/>
@@ -1084,7 +1142,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="28"/>
     <n v="100"/>
     <x v="71"/>
@@ -1092,7 +1150,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="70"/>
     <x v="72"/>
@@ -1100,7 +1158,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="2806"/>
     <n v="120"/>
     <x v="73"/>
@@ -1108,7 +1166,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="20.5"/>
     <n v="119"/>
     <x v="74"/>
@@ -1116,7 +1174,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="66"/>
     <x v="75"/>
@@ -1124,7 +1182,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="2806"/>
     <n v="40"/>
     <x v="76"/>
@@ -1132,7 +1190,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="124"/>
     <x v="77"/>
@@ -1140,7 +1198,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3006"/>
     <n v="100"/>
     <x v="78"/>
@@ -1148,7 +1206,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <s v="60+40"/>
     <n v="105"/>
     <x v="0"/>
@@ -1156,7 +1214,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="190"/>
     <x v="7"/>
@@ -1164,7 +1222,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3006"/>
     <n v="230"/>
     <x v="79"/>
@@ -1172,7 +1230,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3006"/>
     <n v="184"/>
     <x v="80"/>
@@ -1180,7 +1238,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="3006"/>
     <n v="38"/>
     <x v="81"/>
@@ -1188,7 +1246,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="113"/>
     <x v="82"/>
@@ -1196,7 +1254,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="6"/>
     <n v="122"/>
     <x v="83"/>
@@ -1204,7 +1262,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3006"/>
     <n v="82"/>
     <x v="0"/>
@@ -1212,7 +1270,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="100"/>
     <x v="84"/>
@@ -1220,7 +1278,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="194"/>
     <x v="85"/>
@@ -1228,7 +1286,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="8"/>
     <n v="41"/>
     <x v="86"/>
@@ -1236,7 +1294,7 @@
   </r>
   <r>
     <x v="6"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="34026"/>
     <n v="140"/>
     <x v="87"/>
@@ -1244,7 +1302,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="74"/>
     <x v="88"/>
@@ -1252,7 +1310,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="88"/>
     <x v="89"/>
@@ -1260,7 +1318,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="7"/>
     <x v="90"/>
@@ -1268,7 +1326,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="0"/>
     <n v="20"/>
     <x v="91"/>
@@ -1276,7 +1334,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="75"/>
     <x v="92"/>
@@ -1284,7 +1342,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="98"/>
     <x v="93"/>
@@ -1292,7 +1350,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <x v="94"/>
@@ -1300,7 +1358,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="50"/>
     <x v="41"/>
@@ -1308,7 +1366,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="122"/>
     <x v="41"/>
@@ -1316,7 +1374,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="38/1"/>
+    <x v="10"/>
     <n v="38"/>
     <n v="63"/>
     <x v="95"/>
@@ -1324,7 +1382,7 @@
   </r>
   <r>
     <x v="7"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="38"/>
     <n v="200"/>
     <x v="96"/>
@@ -1332,7 +1390,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="12318"/>
     <n v="87"/>
     <x v="22"/>
@@ -1340,7 +1398,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="13"/>
     <n v="73"/>
     <x v="97"/>
@@ -1348,7 +1406,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="883"/>
     <n v="22"/>
     <x v="98"/>
@@ -1356,7 +1414,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="2690"/>
     <n v="112"/>
     <x v="99"/>
@@ -1364,7 +1422,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="91"/>
     <n v="50"/>
     <x v="29"/>
@@ -1372,7 +1430,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="2674"/>
     <n v="65"/>
     <x v="100"/>
@@ -1380,7 +1438,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="29"/>
     <x v="101"/>
@@ -1388,7 +1446,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="36"/>
     <n v="93"/>
     <x v="99"/>
@@ -1396,7 +1454,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="50"/>
     <x v="102"/>
@@ -1404,7 +1462,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="23"/>
     <n v="245"/>
     <x v="103"/>
@@ -1412,7 +1470,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="48"/>
     <n v="80"/>
     <x v="104"/>
@@ -1420,7 +1478,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="38"/>
     <n v="134"/>
     <x v="105"/>
@@ -1428,7 +1486,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="3206"/>
     <n v="97"/>
     <x v="32"/>
@@ -1436,7 +1494,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="12"/>
     <n v="9"/>
     <x v="106"/>
@@ -1444,7 +1502,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="3206"/>
     <n v="170"/>
     <x v="107"/>
@@ -1452,7 +1510,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="36"/>
     <n v="35"/>
     <x v="51"/>
@@ -1460,7 +1518,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="32/1"/>
+    <x v="11"/>
     <n v="0"/>
     <n v="29"/>
     <x v="108"/>
@@ -1468,7 +1526,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="30"/>
     <x v="109"/>
@@ -1476,7 +1534,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="16/1"/>
+    <x v="12"/>
     <n v="6052"/>
     <n v="34"/>
     <x v="110"/>
@@ -1484,7 +1542,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="34/1"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="35"/>
     <x v="111"/>
@@ -1492,7 +1550,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="45"/>
     <n v="26"/>
     <x v="112"/>
@@ -1500,7 +1558,7 @@
   </r>
   <r>
     <x v="8"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="38"/>
     <n v="150"/>
     <x v="113"/>
@@ -1508,7 +1566,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="72"/>
     <n v="136"/>
     <x v="114"/>
@@ -1516,7 +1574,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="40/1"/>
+    <x v="13"/>
     <m/>
     <n v="50"/>
     <x v="115"/>
@@ -1524,7 +1582,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="20117"/>
     <n v="74"/>
     <x v="73"/>
@@ -1532,7 +1590,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="36"/>
     <x v="116"/>
@@ -1540,7 +1598,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="298"/>
     <n v="187"/>
     <x v="12"/>
@@ -1548,7 +1606,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="16/1"/>
+    <x v="12"/>
     <n v="102"/>
     <n v="70"/>
     <x v="117"/>
@@ -1556,7 +1614,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="2665"/>
     <n v="110"/>
     <x v="118"/>
@@ -1564,7 +1622,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="16/1"/>
+    <x v="12"/>
     <n v="0"/>
     <n v="37"/>
     <x v="119"/>
@@ -1572,7 +1630,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="16/1"/>
+    <x v="12"/>
     <n v="0"/>
     <n v="60"/>
     <x v="120"/>
@@ -1580,7 +1638,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="16/1"/>
+    <x v="12"/>
     <n v="0"/>
     <n v="73"/>
     <x v="19"/>
@@ -1588,7 +1646,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="5"/>
     <n v="71"/>
     <x v="121"/>
@@ -1596,7 +1654,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="2665"/>
     <n v="104"/>
     <x v="122"/>
@@ -1604,7 +1662,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="116"/>
     <x v="123"/>
@@ -1612,7 +1670,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="20/1"/>
+    <x v="4"/>
     <n v="2017"/>
     <n v="9"/>
     <x v="98"/>
@@ -1620,7 +1678,7 @@
   </r>
   <r>
     <x v="9"/>
-    <s v="26/1"/>
+    <x v="1"/>
     <n v="15"/>
     <n v="40"/>
     <x v="124"/>
@@ -1628,7 +1686,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="7"/>
     <n v="115"/>
     <x v="125"/>
@@ -1636,7 +1694,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="115"/>
     <x v="126"/>
@@ -1644,7 +1702,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="155"/>
     <x v="40"/>
@@ -1652,7 +1710,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="224"/>
     <x v="53"/>
@@ -1660,7 +1718,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="54"/>
     <x v="127"/>
@@ -1668,7 +1726,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="0"/>
     <n v="140"/>
     <x v="5"/>
@@ -1676,7 +1734,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="96"/>
     <x v="128"/>
@@ -1684,7 +1742,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="127"/>
     <x v="129"/>
@@ -1692,7 +1750,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="104"/>
     <x v="130"/>
@@ -1700,7 +1758,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="200"/>
     <x v="131"/>
@@ -1708,7 +1766,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="0"/>
     <x v="132"/>
@@ -1716,7 +1774,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="28/1"/>
+    <x v="3"/>
     <n v="7"/>
     <n v="159"/>
     <x v="133"/>
@@ -1724,7 +1782,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="avg"/>
+    <x v="7"/>
     <n v="0"/>
     <n v="110"/>
     <x v="134"/>
@@ -1732,7 +1790,7 @@
   </r>
   <r>
     <x v="10"/>
-    <s v="24/1"/>
+    <x v="5"/>
     <n v="0"/>
     <n v="104"/>
     <x v="135"/>
@@ -1740,7 +1798,7 @@
   </r>
   <r>
     <x v="11"/>
-    <s v="30/1"/>
+    <x v="0"/>
     <n v="3437"/>
     <n v="0"/>
     <x v="29"/>
@@ -1750,8 +1808,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Party Name ">
+  <location ref="A5:D65" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -1770,7 +1828,25 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0">
@@ -1916,45 +1992,187 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="60">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i>
       <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
     </i>
     <i>
       <x v="5"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
     <i>
       <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
     </i>
     <i>
       <x v="7"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
     <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
       <x v="8"/>
     </i>
     <i>
       <x v="9"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
     <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
     <i>
       <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -1975,11 +2193,11 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of G.Wt" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of N.Wt" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Cone" fld="3" baseField="0" baseItem="0"/>
+    <dataField name=" G.Wt" fld="4" baseField="0" baseItem="0"/>
+    <dataField name=" N.Wt" fld="5" baseField="0" baseItem="0"/>
+    <dataField name=" Cone" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5534,216 +5752,911 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D16"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8">
-        <v>250.39999999999998</v>
-      </c>
-      <c r="C4" s="8">
-        <v>173.60000000000002</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8">
-        <v>484.20000000000005</v>
-      </c>
-      <c r="C5" s="8">
-        <v>361.20000000000005</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2318</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8">
-        <v>416.60000000000008</v>
+        <v>250.39999999999998</v>
       </c>
       <c r="C6" s="8">
-        <v>319.70000000000005</v>
+        <v>173.6</v>
       </c>
       <c r="D6" s="8">
-        <v>1693</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>28</v>
+      <c r="A7" s="9">
+        <v>0</v>
       </c>
       <c r="B7" s="8">
-        <v>261.90000000000003</v>
+        <v>120.39999999999999</v>
       </c>
       <c r="C7" s="8">
-        <v>219.6</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8">
-        <v>797</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
+      <c r="A8" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="8">
-        <v>377.2</v>
+        <v>130</v>
       </c>
       <c r="C8" s="8">
-        <v>287.79999999999995</v>
+        <v>103.6</v>
       </c>
       <c r="D8" s="8">
-        <v>1703</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>286.7</v>
+        <v>484.20000000000005</v>
       </c>
       <c r="C9" s="8">
-        <v>276.2</v>
+        <v>361.20000000000005</v>
       </c>
       <c r="D9" s="8">
-        <v>1053</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
+      <c r="A10" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="8">
-        <v>103.7</v>
+        <v>14.6</v>
       </c>
       <c r="C10" s="8">
-        <v>76.400000000000006</v>
+        <v>9.6</v>
       </c>
       <c r="D10" s="8">
-        <v>549</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
+      <c r="A11" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>443.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="C11" s="8">
-        <v>336.2</v>
+        <v>20.7</v>
       </c>
       <c r="D11" s="8">
-        <v>1173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
+      <c r="A12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="C12" s="8">
-        <v>14.5</v>
+        <v>34.4</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
+      <c r="A13" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="8">
-        <v>424.69999999999993</v>
+        <v>314.5</v>
       </c>
       <c r="C13" s="8">
-        <v>340.7</v>
+        <v>229.4</v>
       </c>
       <c r="D13" s="8">
-        <v>1655</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>3</v>
+      <c r="A14" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="8">
-        <v>21.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C14" s="8">
-        <v>12</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="D14" s="8">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>416.60000000000008</v>
+      </c>
+      <c r="C15" s="8">
+        <v>319.7</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8">
+        <v>104</v>
+      </c>
+      <c r="C16" s="8">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D16" s="8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>23.8</v>
+      </c>
+      <c r="C18" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8">
+        <v>245.70000000000005</v>
+      </c>
+      <c r="C19" s="8">
+        <v>199.2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>219.60000000000002</v>
+      </c>
+      <c r="D21" s="8">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8">
+        <v>29.4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C23" s="8">
+        <v>27.3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="8">
+        <v>163.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>136.4</v>
+      </c>
+      <c r="D24" s="8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>18.3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="8">
+        <v>377.2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>287.8</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8">
+        <v>238.50000000000003</v>
+      </c>
+      <c r="C28" s="8">
+        <v>180.5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8">
+        <v>48.8</v>
+      </c>
+      <c r="C29" s="8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D29" s="8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="C30" s="8">
+        <v>64.5</v>
+      </c>
+      <c r="D30" s="8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="8">
+        <v>286.7</v>
+      </c>
+      <c r="C32" s="8">
+        <v>276.2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="8">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="C33" s="8">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="D33" s="8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8">
+        <v>128</v>
+      </c>
+      <c r="C34" s="8">
+        <v>128.5</v>
+      </c>
+      <c r="D34" s="8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="8">
+        <v>103.7</v>
+      </c>
+      <c r="C35" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D35" s="8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="8">
+        <v>61.6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>49.6</v>
+      </c>
+      <c r="D37" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="C38" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="D38" s="8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="8">
+        <v>443.6</v>
+      </c>
+      <c r="C39" s="8">
+        <v>336.2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="8">
+        <v>171.5</v>
+      </c>
+      <c r="C40" s="8">
+        <v>161</v>
+      </c>
+      <c r="D40" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="8">
+        <v>100.1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="D41" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="8">
+        <v>106.5</v>
+      </c>
+      <c r="C42" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="D42" s="8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="8">
+        <v>36</v>
+      </c>
+      <c r="C43" s="8">
+        <v>29</v>
+      </c>
+      <c r="D43" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="D44" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="8">
+        <v>16.7</v>
+      </c>
+      <c r="C45" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="8">
+        <v>424.70000000000005</v>
+      </c>
+      <c r="C48" s="8">
+        <v>340.70000000000005</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="C49" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="D49" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="C50" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="D50" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="8">
+        <v>71.7</v>
+      </c>
+      <c r="C51" s="8">
+        <v>62</v>
+      </c>
+      <c r="D51" s="8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8">
+        <v>103.80000000000001</v>
+      </c>
+      <c r="C52" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D52" s="8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="8">
+        <v>111.2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>91.8</v>
+      </c>
+      <c r="D53" s="8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="8">
+        <v>104.6</v>
+      </c>
+      <c r="C54" s="8">
+        <v>90.4</v>
+      </c>
+      <c r="D54" s="8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="8">
+        <v>21.6</v>
+      </c>
+      <c r="C55" s="8">
+        <v>12</v>
+      </c>
+      <c r="D55" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="C56" s="8">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="8">
+        <v>13</v>
+      </c>
+      <c r="C57" s="8">
+        <v>7</v>
+      </c>
+      <c r="D57" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B58" s="8">
         <v>600.09999999999991</v>
       </c>
-      <c r="C15" s="8">
-        <v>818.20000000000016</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C58" s="8">
+        <v>818.19999999999993</v>
+      </c>
+      <c r="D58" s="8">
         <v>1638</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3670.6999999999994</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3236.1000000000004</v>
-      </c>
-      <c r="D16" s="8">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D59" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8">
+        <v>215.3</v>
+      </c>
+      <c r="C60" s="8">
+        <v>302.20000000000005</v>
+      </c>
+      <c r="D60" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C61" s="8">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="8">
+        <v>173.7</v>
+      </c>
+      <c r="C62" s="8">
+        <v>151.9</v>
+      </c>
+      <c r="D62" s="8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="8">
+        <v>183.4</v>
+      </c>
+      <c r="C63" s="8">
+        <v>341.79999999999995</v>
+      </c>
+      <c r="D63" s="8">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="C64" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="D64" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="8">
+        <v>3670.7</v>
+      </c>
+      <c r="C65" s="8">
+        <v>3236.0999999999995</v>
+      </c>
+      <c r="D65" s="8">
         <v>14310</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5755,8 +6668,8 @@
   <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9144,28 +10057,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>